--- a/municipal/ENG/Share of Agriculture Land Area/Kakheti/Sighnaghi Municipality.xlsx
+++ b/municipal/ENG/Share of Agriculture Land Area/Kakheti/Sighnaghi Municipality.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sighnagi Municipality" sheetId="1" r:id="rId1"/>
+    <sheet name="Sighnaghi Municipality" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -48,7 +48,7 @@
     <t>Share of Agriculture Land Area</t>
   </si>
   <si>
-    <t>Share of Agriculture Land Area in Total Land Area of Sighnagi Municipality per sq. km</t>
+    <t>Share of Agriculture Land Area in Total Land Area (%) of Sighnaghi Municipality</t>
   </si>
 </sst>
 </file>
@@ -125,20 +125,11 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -160,15 +151,12 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -179,6 +167,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -461,46 +452,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="35.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5">
+    <row r="3" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4">
         <v>2014</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>46.060751398880896</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
